--- a/Attendance.xlsx
+++ b/Attendance.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\natha\PythonPals\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D1A194E5-64D1-4A6C-BD3B-B8099ADDBEEC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8131FDC-CA21-4362-87F9-5B4A36F8DAF5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3072" yWindow="3072" windowWidth="23040" windowHeight="12204" xr2:uid="{8B801FC2-6DF8-4E6F-9C63-7C4CCB3ACEA9}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8964" xr2:uid="{8B801FC2-6DF8-4E6F-9C63-7C4CCB3ACEA9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
   <si>
     <t>Nathan</t>
   </si>
@@ -49,6 +49,9 @@
   </si>
   <si>
     <t>Riya</t>
+  </si>
+  <si>
+    <t>yes</t>
   </si>
 </sst>
 </file>
@@ -404,7 +407,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -418,25 +421,40 @@
       <c r="A2" t="s">
         <v>0</v>
       </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
